--- a/excel/tim.xlsx
+++ b/excel/tim.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,16 +427,6 @@
           <t>Tim</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/tim.xlsx
+++ b/excel/tim.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,21 +412,227 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tim</t>
-        </is>
-      </c>
-    </row>
+    <row r="2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
